--- a/Data/model_outputs_baseline/UFA/energy_use_TH_df.xlsx
+++ b/Data/model_outputs_baseline/UFA/energy_use_TH_df.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>814276.80027961</v>
+        <v>1140128.781906775</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1360956.292872826</v>
+        <v>1905464.743303179</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1748354.361731262</v>
+        <v>2447968.472844113</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2014208.182217201</v>
+        <v>2820144.690844454</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2189005.777616049</v>
+        <v>3064908.609325865</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2296031.267692425</v>
+        <v>3214614.57871293</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2352835.968927996</v>
+        <v>3294196.923927449</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2373113.432540256</v>
+        <v>3322596.447256367</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2367219.267314902</v>
+        <v>3314385.894809148</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2342998.039567442</v>
+        <v>3280472.21637384</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2306453.92732097</v>
+        <v>3229371.037391119</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2262146.556889776</v>
+        <v>3166949.084795875</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2213236.116053734</v>
+        <v>3098119.04204237</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2162151.674465102</v>
+        <v>3026358.025318216</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2110591.001086773</v>
+        <v>2953911.55369331</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2059826.17079481</v>
+        <v>2882774.29066782</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2010721.744455667</v>
+        <v>2814323.269069632</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1964049.890961376</v>
+        <v>2748920.001270828</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1919828.172973564</v>
+        <v>2687203.593726893</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1878559.934786833</v>
+        <v>2629349.124915869</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1840241.074118713</v>
+        <v>2575767.110331575</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1805007.161044595</v>
+        <v>2526272.329314447</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1772577.15760029</v>
+        <v>2480817.411471223</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1743136.249330078</v>
+        <v>2439320.749578375</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1716457.604370208</v>
+        <v>2401669.4964619</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1692330.28543786</v>
+        <v>2367315.145640559</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1670671.553475688</v>
+        <v>2336198.05716286</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1651234.63801963</v>
+        <v>2308233.296561878</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1634017.791688578</v>
+        <v>2283203.972700957</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1618643.148366784</v>
+        <v>2260901.552940799</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1604862.550446669</v>
+        <v>2241345.663190394</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1592672.873365357</v>
+        <v>2224058.900072568</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1581930.127625519</v>
+        <v>2208775.944505175</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1572319.213056663</v>
+        <v>2195270.774550427</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1563964.624997607</v>
+        <v>2183557.7023539</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1556977.176795069</v>
+        <v>2173385.797706653</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1551037.691233693</v>
+        <v>2164788.862111987</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1546244.903395904</v>
+        <v>2157844.12653924</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1542437.318793766</v>
+        <v>2152064.529364308</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1539414.089682268</v>
+        <v>2147442.799496801</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1537125.75086709</v>
+        <v>2143733.034543093</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1535599.091761774</v>
+        <v>2141022.590200716</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1534495.440800218</v>
+        <v>2139145.859221968</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1534069.69835436</v>
+        <v>2138101.294612609</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1534223.606422481</v>
+        <v>2137603.944240116</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1534841.164932568</v>
+        <v>2137804.258984308</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1535964.693805014</v>
+        <v>2138603.443459807</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1537121.511128782</v>
+        <v>2140189.306891553</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1538770.496574428</v>
+        <v>2142192.791554609</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1540852.760407426</v>
+        <v>2144903.572509046</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1543180.711788315</v>
+        <v>2147942.53074418</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1545938.842470677</v>
+        <v>2151747.804474735</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1549118.013877</v>
+        <v>2155847.062525067</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1552461.700099198</v>
+        <v>2160549.130669752</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1555983.277948056</v>
+        <v>2165335.926180505</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1559998.091187536</v>
+        <v>2170635.331977597</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1564257.267987755</v>
+        <v>2176340.175946107</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1568675.278263089</v>
+        <v>2182070.668503018</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1573433.968998778</v>
+        <v>2188296.114572388</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1578347.201290248</v>
+        <v>2194530.196374202</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1583414.596103556</v>
+        <v>2201224.415882637</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1588911.403238792</v>
+        <v>2208148.178831703</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1594556.702896919</v>
+        <v>2215130.453244809</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1600621.623973191</v>
+        <v>2222728.841200552</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1606425.366998611</v>
+        <v>2230577.352688948</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1612266.543339711</v>
+        <v>2238751.179236879</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1618091.334472424</v>
+        <v>2246964.150803814</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1624182.005768209</v>
+        <v>2255320.687602293</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1630711.338491366</v>
+        <v>2264224.459046936</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1637244.871619648</v>
+        <v>2272898.348179328</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1644278.762455511</v>
+        <v>2282167.874429193</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1651270.230774395</v>
+        <v>2291763.59740991</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1658489.62273912</v>
+        <v>2301123.058227731</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1666057.159353325</v>
+        <v>2310740.765480686</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1673614.457855745</v>
+        <v>2320691.172152009</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1681120.979421214</v>
+        <v>2330708.491652396</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1689098.289435657</v>
+        <v>2341216.975470715</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1697086.836065865</v>
+        <v>2351593.647025839</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1704996.211808368</v>
+        <v>2362045.32387429</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1713273.646457505</v>
+        <v>2372790.946044146</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1721494.94981514</v>
+        <v>2383802.313634121</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1730004.627346923</v>
+        <v>2395364.560393577</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1738679.973080561</v>
+        <v>2406785.725002126</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1747694.738082375</v>
+        <v>2419056.190036185</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1757048.515460314</v>
+        <v>2431061.268714332</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1766372.204979839</v>
+        <v>2443129.304465474</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1775519.189326304</v>
+        <v>2455582.585564786</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1784824.164434072</v>
+        <v>2468238.872883332</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1794315.173660281</v>
+        <v>2481036.704074011</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1803763.788756459</v>
+        <v>2494349.71484232</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1813583.112398057</v>
+        <v>2508073.096296834</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1823476.432387865</v>
+        <v>2521515.035080164</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1833789.385577902</v>
+        <v>2535504.375494597</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1844298.268453412</v>
+        <v>2549353.207304439</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1854800.391190361</v>
+        <v>2563615.933943303</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1865077.780578378</v>
+        <v>2577997.551788989</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1875962.090301833</v>
+        <v>2593157.556435224</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1886981.054123584</v>
+        <v>2608288.348828764</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1898307.341091048</v>
+        <v>2623529.306314306</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1909862.460758181</v>
+        <v>2638720.263905617</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1921075.419842327</v>
+        <v>2653973.239804541</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1932376.505573913</v>
+        <v>2669824.67769067</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1943923.299209201</v>
+        <v>2685811.472979043</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1955751.581614225</v>
+        <v>2702110.042165741</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1967977.506325427</v>
+        <v>2718440.237605131</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1980307.066202851</v>
+        <v>2735176.62918049</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1992592.760362319</v>
+        <v>2751927.182582545</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2005134.253861937</v>
+        <v>2768886.325946877</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2017811.362111311</v>
+        <v>2786223.638164879</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2030436.596175981</v>
+        <v>2803994.222063765</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2043261.20162531</v>
+        <v>2821792.146132373</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2057005.289489266</v>
+        <v>2839493.284430925</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2070650.412030848</v>
+        <v>2857466.513563722</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2083868.022546921</v>
+        <v>2876017.187352679</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2097624.306170741</v>
+        <v>2894610.369542911</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2111060.851151747</v>
+        <v>2913565.958337954</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2125022.365599249</v>
+        <v>2933042.607213546</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2139187.262366742</v>
+        <v>2952731.45850478</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2153400.187614265</v>
+        <v>2972231.063514965</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2167816.026672289</v>
+        <v>2991998.458969061</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2182764.163771166</v>
+        <v>3012374.153496495</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2197452.772021724</v>
+        <v>3032414.135515439</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2212024.761073522</v>
+        <v>3052635.689135499</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2227051.475399389</v>
+        <v>3073590.187412654</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2242460.858016381</v>
+        <v>3094326.983192209</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2257475.061581436</v>
+        <v>3115399.847408631</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2272948.988671951</v>
+        <v>3136705.586647845</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2288845.806468949</v>
+        <v>3158394.627336731</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2304540.776307327</v>
+        <v>3179787.254679355</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2320478.152414408</v>
+        <v>3201600.145646909</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2336331.994584173</v>
+        <v>3224062.343181616</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2351853.607919539</v>
+        <v>3246188.313550088</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2367500.870105619</v>
+        <v>3268732.543112964</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2383577.060796183</v>
+        <v>3290939.932351025</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2399506.00570847</v>
+        <v>3313702.257225469</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2415833.543098505</v>
+        <v>3335674.919671033</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2432254.665999965</v>
+        <v>3358417.581907577</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2448957.827850319</v>
+        <v>3381496.290198805</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2465586.532056101</v>
+        <v>3404913.92008645</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2482739.893088736</v>
+        <v>3428405.106262682</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2499342.002124246</v>
+        <v>3451971.617389606</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2516723.165464488</v>
+        <v>3474912.904103854</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2534192.898842642</v>
+        <v>3496682.031210686</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2551741.844464107</v>
+        <v>3518165.141954757</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2568725.556837029</v>
+        <v>3539118.332723964</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2586584.413952207</v>
+        <v>3560632.308491524</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2604225.976825402</v>
+        <v>3583530.837897494</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2622638.056535541</v>
+        <v>3607107.247663382</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2640916.702834093</v>
+        <v>3631475.582705853</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2659169.052263289</v>
+        <v>3656082.387036375</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2677758.512676067</v>
+        <v>3680558.737982223</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2695756.156956199</v>
+        <v>3704806.270137292</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2714098.331324615</v>
+        <v>3729490.78144691</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2732112.135900754</v>
+        <v>3754698.145044226</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2751000.245356004</v>
+        <v>3779891.311614939</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2769846.581681875</v>
+        <v>3805323.771185659</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2788668.253137672</v>
+        <v>3830881.187467234</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2806976.516761271</v>
+        <v>3857300.474526276</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2824989.507582871</v>
+        <v>3883448.211707965</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2842825.896852004</v>
+        <v>3909611.594043761</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2860034.996023733</v>
+        <v>3935726.909481703</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2877521.34786649</v>
+        <v>3963003.63619466</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2895627.394927588</v>
+        <v>3990080.983966946</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2914387.136130378</v>
+        <v>4017162.13347117</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2934180.572568518</v>
+        <v>4045203.645386348</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2954298.602233953</v>
+        <v>4072740.015756892</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2975518.869065991</v>
+        <v>4101390.282386089</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2996640.615660368</v>
+        <v>4130039.332199665</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3018182.332029545</v>
+        <v>4159726.063935642</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3039178.379777655</v>
+        <v>4188950.612303433</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3060964.187624274</v>
+        <v>4219214.275472754</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3082998.483746692</v>
+        <v>4249681.346757564</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3106419.037309069</v>
+        <v>4280382.759668165</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3129221.375330547</v>
+        <v>4311566.828153854</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3152728.721117643</v>
+        <v>4343431.298237438</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3176174.61364476</v>
+        <v>4375977.862782551</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3200777.744924081</v>
+        <v>4409804.928772287</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3225439.535364802</v>
+        <v>4443579.544569936</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3250895.385289279</v>
+        <v>4477575.60118429</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3276480.738619088</v>
+        <v>4512756.870409399</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3303044.116357421</v>
+        <v>4548861.857251367</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3329614.89490277</v>
+        <v>4585713.816952864</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3357077.942319063</v>
+        <v>4623030.003810469</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3384622.773257805</v>
+        <v>4661294.302483022</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3413608.859730485</v>
+        <v>4700418.524215491</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3443023.164046424</v>
+        <v>4740613.569838038</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3472789.568321504</v>
+        <v>4781382.545883549</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3502848.027367799</v>
+        <v>4823166.700998452</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3534317.28849549</v>
+        <v>4866115.127528934</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>3565651.765607907</v>
+        <v>4910485.704528004</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3598691.271095138</v>
+        <v>4955743.38217715</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3632483.776386558</v>
+        <v>5001939.072777969</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3667251.464850858</v>
+        <v>5049625.259273099</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3703126.658816982</v>
+        <v>5097740.912275868</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>3739322.997467067</v>
+        <v>5147477.778744686</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3776557.591038283</v>
+        <v>5199036.264562218</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3814791.373609879</v>
+        <v>5251870.657830782</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3853820.403075795</v>
+        <v>5305605.16117618</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3894485.901876055</v>
+        <v>5361074.167006336</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>3936127.59641447</v>
+        <v>5417303.347839929</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>3979265.309906324</v>
+        <v>5475930.360970416</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4023289.693493196</v>
+        <v>5536763.714970121</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4068281.826764036</v>
+        <v>5599076.443145245</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4114158.738923441</v>
+        <v>5662708.784974718</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>4161553.839472525</v>
+        <v>5727981.39047483</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4210202.3339846</v>
+        <v>5795172.302701171</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4260530.831181793</v>
+        <v>5863612.963239681</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4311547.699568132</v>
+        <v>5933803.099081125</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>4364838.639953937</v>
+        <v>6006992.893889528</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>4418771.018396066</v>
+        <v>6082587.051131807</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4475294.52494269</v>
+        <v>6159718.396827577</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4533657.292745494</v>
+        <v>6238351.380257732</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>4593800.484041171</v>
+        <v>6321000.161847088</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4654248.532302395</v>
+        <v>6404404.656845439</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>4717266.766682584</v>
+        <v>6490279.838252639</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4781414.195631328</v>
+        <v>6578876.940189689</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4847032.653179348</v>
+        <v>6670006.722582079</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4914948.929219825</v>
+        <v>6763285.103934152</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4985441.612638056</v>
+        <v>6860240.343676982</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>5056927.220904937</v>
+        <v>6960547.035853941</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>5130774.655317995</v>
+        <v>7063926.237393165</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5206536.147757014</v>
+        <v>7169128.479044667</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>5284759.355885074</v>
+        <v>7277498.310532128</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>5365497.541363182</v>
+        <v>7389282.720700866</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>5448211.430685997</v>
+        <v>7504243.739110501</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>5533694.850013791</v>
+        <v>7621085.337257691</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>5622255.093733845</v>
+        <v>7742262.828069473</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>5713484.805679009</v>
+        <v>7866731.637982557</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>5807271.32245742</v>
+        <v>7994479.560351063</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>5904351.580993319</v>
+        <v>8125633.442167658</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>6003812.249288488</v>
+        <v>8260382.314300317</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>6105334.111302147</v>
+        <v>8399739.283766162</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>6208896.69579508</v>
+        <v>8543070.050895616</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>6315219.527251096</v>
+        <v>8690252.898566257</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>6425432.749789153</v>
+        <v>8843267.010737468</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>6538177.756676553</v>
+        <v>9000630.067585465</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6654115.607260542</v>
+        <v>9163039.585660193</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>6772805.018571841</v>
+        <v>9329134.749219274</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>6894727.126011805</v>
+        <v>9499493.85639222</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>7019352.699269952</v>
+        <v>9674752.984237658</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>7147771.22243646</v>
+        <v>9854912.186848015</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>7280213.564098828</v>
+        <v>10039506.02129749</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>7415850.221669689</v>
+        <v>10228956.61851226</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>7554686.857365713</v>
+        <v>10423329.87488879</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>7697844.744914019</v>
+        <v>10622965.46544307</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>7844840.340289054</v>
+        <v>10828214.61226795</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>7996415.336415246</v>
+        <v>11039109.8522875</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>8150705.794205893</v>
+        <v>11254849.74241934</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>8309451.548901612</v>
+        <v>11475494.23843139</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>8472362.402036954</v>
+        <v>11702526.57034345</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>8639364.737900883</v>
+        <v>11934615.91521673</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>8811396.92832659</v>
+        <v>12173445.49767522</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>8987954.719407987</v>
+        <v>12418449.82805153</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>9169610.994415745</v>
+        <v>12669583.62766963</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>9356125.271666542</v>
+        <v>12926119.90400992</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>9548288.256579109</v>
+        <v>13189611.12143182</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>9744456.422754899</v>
+        <v>13459866.10274405</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>9943672.389748758</v>
+        <v>13737387.95255677</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>10149241.01613275</v>
+        <v>14021849.14556999</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>10359722.12348988</v>
+        <v>14314272.41989231</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>10574738.96005258</v>
+        <v>14613799.96326917</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>10794560.74517017</v>
+        <v>14920063.75344834</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>11021285.60584807</v>
+        <v>15235461.3495143</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>11253651.79172808</v>
+        <v>15557633.74904609</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>11491180.97818432</v>
+        <v>15887652.05385764</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>11735709.58918324</v>
+        <v>16225553.09995788</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>11984007.35690075</v>
+        <v>16570895.28567558</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>12239799.91262327</v>
+        <v>16923345.44096483</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>12501926.75265259</v>
+        <v>17285296.83302459</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>12771116.44447757</v>
+        <v>17655687.26502915</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>13045911.96290149</v>
+        <v>18035418.05133936</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>13327491.17387547</v>
+        <v>18426203.15847832</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>13615801.92749891</v>
+        <v>18824065.48838336</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>13911351.41893271</v>
+        <v>19232720.83710464</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>14215484.47921994</v>
+        <v>19650093.49121382</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>14526379.41665753</v>
+        <v>20078793.51133111</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>14842328.41457306</v>
+        <v>20518146.07219829</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>15165342.55737149</v>
+        <v>20969044.76706097</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>15496432.06652569</v>
+        <v>21428998.16551635</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>15836159.1065763</v>
+        <v>21900466.00231375</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>16182340.95487549</v>
+        <v>22383120.14547669</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>16538098.20933846</v>
+        <v>22878981.40955194</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>16902020.14258237</v>
+        <v>23385567.16605502</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>17273415.74432432</v>
+        <v>23905392.88538576</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>17654683.53801306</v>
+        <v>24436982.57424546</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>18045633.19703437</v>
+        <v>24982113.27622772</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>18445645.70806628</v>
+        <v>25538281.74062683</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>18856099.70024693</v>
+        <v>26108648.1105585</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>19273687.82986163</v>
+        <v>26692101.72392925</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>19704194.31335023</v>
+        <v>27289313.99996533</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>20142390.37002914</v>
+        <v>27902019.2689822</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>20592935.0719663</v>
+        <v>28528550.95108191</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>21052971.5038196</v>
+        <v>29170944.6961889</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>21524264.19861178</v>
+        <v>29828113.79977728</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>22006767.04469378</v>
+        <v>30501284.83108769</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>22501499.47681243</v>
+        <v>31190110.16506545</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>23007913.33593441</v>
+        <v>31894634.55773138</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>23527795.00011766</v>
+        <v>32618576.97787768</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>24057736.25744733</v>
+        <v>33359255.97199472</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>24599194.56790548</v>
+        <v>34117230.90375108</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>25153391.81263101</v>
+        <v>34894063.43117189</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>26034524.61177611</v>
+        <v>36127025.03228393</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>27076173.31105421</v>
+        <v>37582200.01683917</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>28281235.78798264</v>
+        <v>39267796.82838347</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>29653838.37008464</v>
+        <v>41185608.55819674</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>31198020.19593997</v>
+        <v>43344685.42689548</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>32916832.54391693</v>
+        <v>45748959.15409878</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>34814708.16670667</v>
+        <v>48404767.82576591</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>36897306.76843269</v>
+        <v>51318889.80401808</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>39168648.8982852</v>
+        <v>54496960.79994544</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>41635704.18271928</v>
+        <v>57946271.3518883</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>44301286.26817647</v>
+        <v>61673880.52644158</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>47168915.41093798</v>
+        <v>65686587.86345213</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>50244312.69572181</v>
+        <v>69990566.54701397</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>53533704.37312961</v>
+        <v>74595717.52392384</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>57042534.29907092</v>
+        <v>79508062.03014742</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>60775605.55740261</v>
+        <v>84736048.1949116</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>64738602.77464819</v>
+        <v>90287745.65819439</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>68939777.93083881</v>
+        <v>96170320.81726027</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>73384987.67949763</v>
+        <v>102392692.3074756</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>78078553.23517036</v>
+        <v>108965456.0036363</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>83028774.9489958</v>
+        <v>115896214.7252619</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>88240388.4242169</v>
+        <v>123196160.7290996</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>93722314.69544089</v>
+        <v>130874859.1720122</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>99481206.95032829</v>
+        <v>138941152.3866956</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>105524206.6267788</v>
+        <v>147407154.8650646</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>111861448.236163</v>
+        <v>156280364.0463835</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>118498877.5514484</v>
+        <v>165572283.2249486</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>125443973.7692775</v>
+        <v>175298940.2151176</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>132705643.1806435</v>
+        <v>185468195.1028896</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>140293024.4208108</v>
+        <v>196091229.3919598</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>148212079.9837212</v>
+        <v>207185221.9522989</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>156477970.931806</v>
+        <v>218757642.0155922</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>165094764.5699027</v>
+        <v>230825264.5567546</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>174073311.2870171</v>
+        <v>243400067.7742494</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>183427751.8789691</v>
+        <v>256498497.9261679</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>193165264.3352421</v>
+        <v>270130912.5674638</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>203293450.8839962</v>
+        <v>284317708.0148486</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>213829391.2942012</v>
+        <v>299069194.1266068</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>224781172.1631058</v>
+        <v>314403405.0082827</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>236159989.7257906</v>
+        <v>330334630.8145097</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>247981906.9645928</v>
+        <v>346884221.5153705</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>260253037.1663373</v>
+        <v>364064341.8561019</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>272991013.7576304</v>
+        <v>381900676.5369061</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>286205918.2956153</v>
+        <v>400404399.2409264</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>299914616.1521492</v>
+        <v>419597478.9811007</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>314128794.9540029</v>
+        <v>439503488.5536497</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>328865604.1803223</v>
+        <v>460137448.4620519</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>344137776.7284305</v>
+        <v>481519178.4943889</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>359962314.5582272</v>
+        <v>503675787.2604855</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>376352665.3314404</v>
+        <v>526628689.0150377</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>393331096.4953158</v>
+        <v>550398786.7028408</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>410908527.7576923</v>
+        <v>575010306.9934057</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>429106201.9107888</v>
+        <v>600488711.5181837</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>447939409.8525606</v>
+        <v>626861363.7286963</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>467434037.006073</v>
+        <v>654151068.4119682</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>487041120.6074005</v>
+        <v>681598975.8336279</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>507078635.2629794</v>
+        <v>709650601.9501476</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>527558606.9568293</v>
+        <v>738325926.3582166</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>548497161.5560412</v>
+        <v>767640716.7528422</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>569905667.880814</v>
+        <v>797616480.4117622</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>591797702.3201503</v>
+        <v>828267877.2724915</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>614191822.1738586</v>
+        <v>859619783.4448574</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>637101456.2374754</v>
+        <v>891692396.9543815</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>660540707.3769116</v>
+        <v>924507931.8805778</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>684526021.1421974</v>
+        <v>958086048.9189918</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>709078245.6546104</v>
+        <v>992457094.5804627</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>734210426.6744566</v>
+        <v>1027640204.525324</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>759946546.553165</v>
+        <v>1063666507.130476</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>786300281.5836158</v>
+        <v>1100560814.431426</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>813295879.4758577</v>
+        <v>1138349660.138931</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>840945846.7148361</v>
+        <v>1177060203.365253</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>869278382.019567</v>
+        <v>1216726130.465276</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>898311255.2419214</v>
+        <v>1257376658.957385</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>928085220.239979</v>
+        <v>1299061511.123339</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>958611040.4575775</v>
+        <v>1341802397.264551</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>989916915.7875974</v>
+        <v>1385634394.911312</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>1022029572.745317</v>
+        <v>1430595555.997598</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>1054982520.600226</v>
+        <v>1476727963.600949</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>1088798363.046804</v>
+        <v>1524075923.385437</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>1123518092.128423</v>
+        <v>1572686426.33248</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>1159101522.644064</v>
+        <v>1623465842.073648</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>1195622051.393229</v>
+        <v>1676022321.286757</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>1233119184.34798</v>
+        <v>1730422343.884993</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>1271633266.193254</v>
+        <v>1786748646.924371</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>1311206678.249038</v>
+        <v>1845080560.893659</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>1351883318.668859</v>
+        <v>1905506065.194234</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>1393681906.003229</v>
+        <v>1968077062.025497</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>1436196248.861598</v>
+        <v>2032311606.611678</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>1478140049.872703</v>
+        <v>2096589237.914448</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>1517631934.1396</v>
+        <v>2158495368.551833</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>1553191295.181083</v>
+        <v>2214997469.14049</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>1583514955.898703</v>
+        <v>2264694169.953599</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>1608119576.606579</v>
+        <v>2306752561.608277</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>1627131702.567822</v>
+        <v>2341145399.050176</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>1641114511.127199</v>
+        <v>2368473259.918596</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>1650885303.045355</v>
+        <v>2389730616.370896</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>1657373699.174768</v>
+        <v>2406113771.274717</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>1661511050.173285</v>
+        <v>2418874210.801127</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>1664175507.789091</v>
+        <v>2429220847.982933</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>1666160521.967085</v>
+        <v>2438266682.232994</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>1665559603.748737</v>
+        <v>2439905146.805156</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>1664350361.903143</v>
+        <v>2438472248.689073</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>1663165305.807045</v>
+        <v>2435081148.288527</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>1662556012.912995</v>
+        <v>2430702234.553274</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>1663008049.687433</v>
+        <v>2426194866.408111</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>1664957469.095097</v>
+        <v>2422311709.054578</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>1668848587.270473</v>
+        <v>2419762958.198534</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>1675177039.33504</v>
+        <v>2419258841.363904</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>1684594261.321367</v>
+        <v>2421622520.204328</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>1698092881.527651</v>
+        <v>2427982830.882711</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>1714065381.689492</v>
+        <v>2436829736.697777</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>1737225034.863969</v>
+        <v>2452964766.688353</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>1762908580.749894</v>
+        <v>2471777579.663013</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>1790384718.36963</v>
+        <v>2492584928.293505</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>1819071295.157779</v>
+        <v>2514820491.846371</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>1848502127.023571</v>
+        <v>2538033034.593274</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>1878146045.536742</v>
+        <v>2561636923.800809</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>1905718629.268287</v>
+        <v>2582670022.242945</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>1925807843.116014</v>
+        <v>2594025767.596107</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>1931999349.357792</v>
+        <v>2587412358.43443</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>1919846809.270828</v>
+        <v>2557273875.019182</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>1888105170.359962</v>
+        <v>2502306512.286789</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>1838351716.585281</v>
+        <v>2424865159.660708</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>1773963339.725963</v>
+        <v>2329547805.248198</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>1699064404.184263</v>
+        <v>2221818897.450447</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>1617776040.110747</v>
+        <v>2107032964.805575</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>1533739841.71721</v>
+        <v>1989858264.327608</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>1449932937.994829</v>
+        <v>1874048497.639092</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>1368617252.410076</v>
+        <v>1762408856.551935</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>1291401571.423623</v>
+        <v>1656880361.00195</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>1219318456.800471</v>
+        <v>1558691828.810404</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>1152962992.205634</v>
+        <v>1468476081.320519</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>1092571399.909093</v>
+        <v>1386448179.482137</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>1038135942.814618</v>
+        <v>1312509894.341346</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>989466960.1961561</v>
+        <v>1246339727.444329</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>946269784.2627199</v>
+        <v>1187487190.087924</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>908163586.7188842</v>
+        <v>1135419835.211473</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>874752567.2712274</v>
+        <v>1089575615.488764</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>845619077.4963305</v>
+        <v>1049375274.309643</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>820356235.3356434</v>
+        <v>1014270887.84108</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>798565342.545661</v>
+        <v>983734836.5354027</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>779881421.34659</v>
+        <v>957258472.4942629</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>763970184.5055532</v>
+        <v>934396561.9349253</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>750512877.5592573</v>
+        <v>914726330.3635209</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>739243039.2663075</v>
+        <v>897891397.3156146</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>729907970.7687383</v>
+        <v>883553236.8912657</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>722282383.8764596</v>
+        <v>871412694.5895882</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>716177367.0414596</v>
+        <v>861213260.1500752</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>711408411.4348828</v>
+        <v>852715891.2744676</v>
       </c>
     </row>
     <row r="452">

--- a/Data/model_outputs_baseline/UFA/energy_use_TH_df.xlsx
+++ b/Data/model_outputs_baseline/UFA/energy_use_TH_df.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1140128.781906775</v>
+        <v>627015.3157737558</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1905464.743303179</v>
+        <v>1047984.707697622</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2447968.472844113</v>
+        <v>1346293.92726625</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2820144.690844454</v>
+        <v>1550978.657295195</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3064908.609325865</v>
+        <v>1685525.41276032</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3214614.57871293</v>
+        <v>1767891.512980422</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3294196.923927449</v>
+        <v>1811644.939405866</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3322596.447256367</v>
+        <v>1827327.427510483</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3314385.894809148</v>
+        <v>1822994.612626872</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3280472.21637384</v>
+        <v>1804499.239579075</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3229371.037391119</v>
+        <v>1776469.2980941</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3166949.084795875</v>
+        <v>1742194.564059773</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3098119.04204237</v>
+        <v>1704323.969590006</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3026358.025318216</v>
+        <v>1664805.81079572</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2953911.55369331</v>
+        <v>1625071.61594606</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2882774.29066782</v>
+        <v>1586210.401869588</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2814323.269069632</v>
+        <v>1548363.186557267</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2748920.001270828</v>
+        <v>1512422.566255993</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2687203.593726893</v>
+        <v>1478654.844823001</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2629349.124915869</v>
+        <v>1447100.999123965</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2575767.110331575</v>
+        <v>1417821.545274043</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2526272.329314447</v>
+        <v>1391091.882535471</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2480817.411471223</v>
+        <v>1366584.782197765</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2439320.749578375</v>
+        <v>1344097.270225525</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2401669.4964619</v>
+        <v>1323705.545176465</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2367315.145640559</v>
+        <v>1305332.738135307</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2336198.05716286</v>
+        <v>1288744.807110613</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2308233.296561878</v>
+        <v>1273949.930148596</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2283203.972700957</v>
+        <v>1260694.088276482</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2260901.552940799</v>
+        <v>1248828.122869653</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2241345.663190394</v>
+        <v>1238611.994978244</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2224058.900072568</v>
+        <v>1229721.853493914</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2208775.944505175</v>
+        <v>1221697.322009041</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2195270.774550427</v>
+        <v>1214603.239143769</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2183557.7023539</v>
+        <v>1208370.278659303</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2173385.797706653</v>
+        <v>1202995.828672464</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2164788.862111987</v>
+        <v>1198603.415711914</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2157844.12653924</v>
+        <v>1194980.718297591</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2152064.529364308</v>
+        <v>1192058.596833298</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2147442.799496801</v>
+        <v>1189627.293416667</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2143733.034543093</v>
+        <v>1187992.093033188</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2141022.590200716</v>
+        <v>1186967.253558223</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2139145.859221968</v>
+        <v>1186263.171044011</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2138101.294612609</v>
+        <v>1186108.339636626</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2137603.944240116</v>
+        <v>1186259.461597091</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2137804.258984308</v>
+        <v>1186847.597232063</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2138603.443459807</v>
+        <v>1187562.597023316</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2140189.306891553</v>
+        <v>1188715.238590878</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2142192.791554609</v>
+        <v>1190144.099382143</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2144903.572509046</v>
+        <v>1191681.785244252</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2147942.53074418</v>
+        <v>1194074.161194167</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2151747.804474735</v>
+        <v>1196787.345971982</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2155847.062525067</v>
+        <v>1199603.497435108</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2160549.130669752</v>
+        <v>1202506.477982619</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2165335.926180505</v>
+        <v>1205833.22126514</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2170635.331977597</v>
+        <v>1209438.727358317</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2176340.175946107</v>
+        <v>1212946.925685497</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2182070.668503018</v>
+        <v>1216624.888229215</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2188296.114572388</v>
+        <v>1220514.211617997</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2194530.196374202</v>
+        <v>1224862.797595996</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2201224.415882637</v>
+        <v>1229210.631729831</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2208148.178831703</v>
+        <v>1233804.04011397</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2215130.453244809</v>
+        <v>1238071.004981155</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2222728.841200552</v>
+        <v>1242627.659252587</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2230577.352688948</v>
+        <v>1247452.245810362</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2238751.179236879</v>
+        <v>1252161.525216987</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2246964.150803814</v>
+        <v>1257405.715276056</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2255320.687602293</v>
+        <v>1262645.218698959</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2264224.459046936</v>
+        <v>1268091.290645531</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2272898.348179328</v>
+        <v>1273580.387240428</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2282167.874429193</v>
+        <v>1278922.837190727</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2291763.59740991</v>
+        <v>1284500.550920196</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2301123.058227731</v>
+        <v>1290200.326597308</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2310740.765480686</v>
+        <v>1296394.170607453</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2320691.172152009</v>
+        <v>1302446.651143826</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2330708.491652396</v>
+        <v>1308798.057433762</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2341216.975470715</v>
+        <v>1315096.576899059</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2351593.647025839</v>
+        <v>1321835.267379321</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2362045.32387429</v>
+        <v>1328123.153830435</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2372790.946044146</v>
+        <v>1334577.103352135</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2383802.313634121</v>
+        <v>1340958.879188234</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2395364.560393577</v>
+        <v>1347910.065276119</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2406785.725002126</v>
+        <v>1355124.476657251</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2419056.190036185</v>
+        <v>1362238.644273759</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2431061.268714332</v>
+        <v>1369246.468845777</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2443129.304465474</v>
+        <v>1376582.600349618</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2455582.585564786</v>
+        <v>1384019.295994141</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2468238.872883332</v>
+        <v>1391625.600927532</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2481036.704074011</v>
+        <v>1399498.877277851</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2494349.71484232</v>
+        <v>1407393.941269787</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2508073.096296834</v>
+        <v>1415872.973517205</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2521515.035080164</v>
+        <v>1423765.126728964</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2535504.375494597</v>
+        <v>1431945.754301197</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2549353.207304439</v>
+        <v>1440437.184700723</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2563615.933943303</v>
+        <v>1448706.794978823</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2577997.551788989</v>
+        <v>1457139.613543979</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2593157.556435224</v>
+        <v>1466117.618995939</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2608288.348828764</v>
+        <v>1475417.263830083</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2623529.306314306</v>
+        <v>1484176.453858552</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2638720.263905617</v>
+        <v>1493158.098483456</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2653973.239804541</v>
+        <v>1502229.843494704</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2669824.67769067</v>
+        <v>1511828.048923034</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2685811.472979043</v>
+        <v>1521366.749878905</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2702110.042165741</v>
+        <v>1531059.137989333</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2718440.237605131</v>
+        <v>1540368.172087934</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2735176.62918049</v>
+        <v>1549922.684512917</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2751927.182582545</v>
+        <v>1559405.476425522</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2768886.325946877</v>
+        <v>1569178.593358749</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2786223.638164879</v>
+        <v>1578847.867247009</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2803994.222063765</v>
+        <v>1588805.769160603</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2821792.146132373</v>
+        <v>1599100.007384832</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2839493.284430925</v>
+        <v>1609383.573784959</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2857466.513563722</v>
+        <v>1620020.98058336</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2876017.187352679</v>
+        <v>1630628.48091973</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2894610.369542911</v>
+        <v>1641170.097430199</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2913565.958337954</v>
+        <v>1652005.441525755</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2933042.607213546</v>
+        <v>1662779.513341944</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2952731.45850478</v>
+        <v>1673648.601819618</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2972231.063514965</v>
+        <v>1685060.182039609</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2991998.458969061</v>
+        <v>1696057.402671541</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3012374.153496495</v>
+        <v>1707342.090068703</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3032414.135515439</v>
+        <v>1718945.559051363</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3052635.689135499</v>
+        <v>1730342.871427929</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3073590.187412654</v>
+        <v>1741573.610165455</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3094326.983192209</v>
+        <v>1753460.541936853</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3115399.847408631</v>
+        <v>1765055.613181405</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3136705.586647845</v>
+        <v>1776909.133041356</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3158394.627336731</v>
+        <v>1788846.554785432</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3179787.254679355</v>
+        <v>1801237.452301273</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3201600.145646909</v>
+        <v>1813583.739283357</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3224062.343181616</v>
+        <v>1826272.648154005</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3246188.313550088</v>
+        <v>1839020.815251075</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3268732.543112964</v>
+        <v>1851565.716679543</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3290939.932351025</v>
+        <v>1864367.15456819</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3313702.257225469</v>
+        <v>1877354.901920269</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3335674.919671033</v>
+        <v>1890614.159937854</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3358417.581907577</v>
+        <v>1903623.172434592</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3381496.290198805</v>
+        <v>1917225.855389331</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3404913.92008645</v>
+        <v>1930512.718738514</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3428405.106262682</v>
+        <v>1943623.043368573</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3451971.617389606</v>
+        <v>1957158.16773945</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3474912.904103854</v>
+        <v>1970312.917251191</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3496682.031210686</v>
+        <v>1983724.112034901</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3518165.141954757</v>
+        <v>1997132.555194576</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3539118.332723964</v>
+        <v>2010423.367146322</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3560632.308491524</v>
+        <v>2023705.22072807</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3583530.837897494</v>
+        <v>2037693.396076667</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3607107.247663382</v>
+        <v>2051291.208668271</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3631475.582705853</v>
+        <v>2065339.839769981</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3656082.387036375</v>
+        <v>2079457.251325164</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3680558.737982223</v>
+        <v>2093800.673704352</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3704806.270137292</v>
+        <v>2107849.349816509</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3729490.78144691</v>
+        <v>2122909.820792962</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3754698.145044226</v>
+        <v>2137069.061616556</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3779891.311614939</v>
+        <v>2151809.11075073</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3805323.771185659</v>
+        <v>2166485.529245306</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3830881.187467234</v>
+        <v>2181470.02832179</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3857300.474526276</v>
+        <v>2196467.075773826</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3883448.211707965</v>
+        <v>2211812.409322058</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3909611.594043761</v>
+        <v>2227242.608270838</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3935726.909481703</v>
+        <v>2243015.487485916</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3963003.63619466</v>
+        <v>2258376.933020744</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3990080.983966946</v>
+        <v>2274604.049748301</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4017162.13347117</v>
+        <v>2290337.338226819</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4045203.645386348</v>
+        <v>2306459.013512381</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4072740.015756892</v>
+        <v>2322896.477189658</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4101390.282386089</v>
+        <v>2339846.481273364</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4130039.332199665</v>
+        <v>2356414.472865429</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4159726.063935642</v>
+        <v>2373264.546400798</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4188950.612303433</v>
+        <v>2389003.361829334</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4219214.275472754</v>
+        <v>2404636.598512503</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4249681.346757564</v>
+        <v>2420115.254498629</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4280382.759668165</v>
+        <v>2435349.8485176</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4311566.828153854</v>
+        <v>2452331.114240504</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4343431.298237438</v>
+        <v>2469512.488024792</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4375977.862782551</v>
+        <v>2487926.110880096</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4409804.928772287</v>
+        <v>2506809.792837872</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4443579.544569936</v>
+        <v>2526237.815680499</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4477575.60118429</v>
+        <v>2545418.027352837</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4512756.870409399</v>
+        <v>2565173.533441965</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4548861.857251367</v>
+        <v>2585213.864210154</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4585713.816952864</v>
+        <v>2606042.542978156</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4623030.003810469</v>
+        <v>2627515.771605144</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4661294.302483022</v>
+        <v>2649514.798967887</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4700418.524215491</v>
+        <v>2672348.511238825</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4740613.569838038</v>
+        <v>2695051.100716277</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4781382.545883549</v>
+        <v>2718285.878461177</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4823166.700998452</v>
+        <v>2742345.932576587</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4866115.127528934</v>
+        <v>2766545.267809002</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4910485.704528004</v>
+        <v>2791578.400645579</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4955743.38217715</v>
+        <v>2817214.283166448</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5001939.072777969</v>
+        <v>2843674.186556316</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5049625.259273099</v>
+        <v>2870996.918081892</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5097740.912275868</v>
+        <v>2899349.731546217</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5147477.778744686</v>
+        <v>2928198.866109106</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5199036.264562218</v>
+        <v>2956952.651080574</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5251870.657830782</v>
+        <v>2987124.880554965</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5305605.16117618</v>
+        <v>3017959.741102813</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5361074.167006336</v>
+        <v>3049271.511467281</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5417303.347839929</v>
+        <v>3080450.133860979</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5475930.360970416</v>
+        <v>3113345.472079337</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5536763.714970121</v>
+        <v>3147319.310231671</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>5599076.443145245</v>
+        <v>3182186.104702673</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5662708.784974718</v>
+        <v>3218723.630421984</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5727981.39047483</v>
+        <v>3256371.543408134</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5795172.302701171</v>
+        <v>3295072.925218126</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5863612.963239681</v>
+        <v>3335423.043881296</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5933803.099081125</v>
+        <v>3375729.765231611</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>6006992.893889528</v>
+        <v>3417099.887690232</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>6082587.051131807</v>
+        <v>3459146.442125371</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>6159718.396827577</v>
+        <v>3502920.283654057</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>6238351.380257732</v>
+        <v>3547760.129959773</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>6321000.161847088</v>
+        <v>3593481.357255908</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>6404404.656845439</v>
+        <v>3641044.555449607</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6490279.838252639</v>
+        <v>3689261.0916781</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>6578876.940189689</v>
+        <v>3738735.632051483</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>6670006.722582079</v>
+        <v>3790170.928190675</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>6763285.103934152</v>
+        <v>3842705.327032653</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6860240.343676982</v>
+        <v>3897957.397947581</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>6960547.035853941</v>
+        <v>3954473.133884561</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>7063926.237393165</v>
+        <v>4012277.792288942</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>7169128.479044667</v>
+        <v>4072690.730180288</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>7277498.310532128</v>
+        <v>4135778.660753187</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>7389282.720700866</v>
+        <v>4199399.243845358</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>7504243.739110501</v>
+        <v>4264723.607352052</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>7621085.337257691</v>
+        <v>4331786.659157528</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>7742262.828069473</v>
+        <v>4401194.365523364</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>7866731.637982557</v>
+        <v>4471098.531676269</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>7994479.560351063</v>
+        <v>4543430.720810119</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>8125633.442167658</v>
+        <v>4617946.426865477</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>8260382.314300317</v>
+        <v>4694324.315176941</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>8399739.283766162</v>
+        <v>4772710.488623886</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>8543070.050895616</v>
+        <v>4853049.113139948</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>8690252.898566257</v>
+        <v>4935112.10692684</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>8843267.010737468</v>
+        <v>5020149.209544965</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>9000630.067585465</v>
+        <v>5107219.327054326</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>9163039.585660193</v>
+        <v>5196029.864202002</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>9329134.749219274</v>
+        <v>5286905.06399414</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>9499493.85639222</v>
+        <v>5381794.608130387</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>9674752.984237658</v>
+        <v>5478260.394691802</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>9854912.186848015</v>
+        <v>5576666.609596899</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>10039506.02129749</v>
+        <v>5677837.026123673</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>10228956.61851226</v>
+        <v>5782532.058470063</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>10423329.87488879</v>
+        <v>5889657.642556895</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>10622965.46544307</v>
+        <v>5999066.471218377</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>10828214.61226795</v>
+        <v>6112428.932853043</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>11039109.8522875</v>
+        <v>6229065.498718584</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>11254849.74241934</v>
+        <v>6348413.557060281</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>11475494.23843139</v>
+        <v>6470956.871335538</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>11702526.57034345</v>
+        <v>6596625.215722081</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>11934615.91521673</v>
+        <v>6726344.080558404</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>12173445.49767522</v>
+        <v>6859552.243354946</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>12418449.82805153</v>
+        <v>6995014.101735799</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>12669583.62766963</v>
+        <v>7135121.35035532</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>12926119.90400992</v>
+        <v>7279448.455921668</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>13189611.12143182</v>
+        <v>7426570.616864005</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>13459866.10274405</v>
+        <v>7578818.892849043</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>13737387.95255677</v>
+        <v>7734466.381951118</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>14021849.14556999</v>
+        <v>7894316.070205664</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>14314272.41989231</v>
+        <v>8057317.815426987</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>14613799.96326917</v>
+        <v>8225928.410474122</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>14920063.75344834</v>
+        <v>8397850.302012753</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>15235461.3495143</v>
+        <v>8574635.130675696</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>15557633.74904609</v>
+        <v>8754284.266949803</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>15887652.05385764</v>
+        <v>8938242.398365479</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>16225553.09995788</v>
+        <v>9126812.961938839</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>16570895.28567558</v>
+        <v>9320466.487467937</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>16923345.44096483</v>
+        <v>9517365.193744499</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>17285296.83302459</v>
+        <v>9720182.634024013</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>17655687.26502915</v>
+        <v>9927860.509260502</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>18035418.05133936</v>
+        <v>10140930.76975941</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>18426203.15847832</v>
+        <v>10358611.71830799</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>18824065.48838336</v>
+        <v>10581817.94644552</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>19232720.83710464</v>
+        <v>10811433.42161363</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>19650093.49121382</v>
+        <v>11046222.8496458</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>20078793.51133111</v>
+        <v>11286465.37961161</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>20518146.07219829</v>
+        <v>11532560.58727644</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>20969044.76706097</v>
+        <v>11785314.46860534</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>21428998.16551635</v>
+        <v>12044258.97347405</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>21900466.00231375</v>
+        <v>12309466.22761353</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>22383120.14547669</v>
+        <v>12581441.43780154</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>22878981.40955194</v>
+        <v>12859483.78473684</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>23385567.16605502</v>
+        <v>13144504.14889855</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>23905392.88538576</v>
+        <v>13435609.44015794</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>24436982.57424546</v>
+        <v>13731646.54518792</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>24982113.27622772</v>
+        <v>14034422.71199038</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>25538281.74062683</v>
+        <v>14343392.04116438</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>26108648.1105585</v>
+        <v>14660010.73536911</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>26692101.72392925</v>
+        <v>14985606.22951619</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>27289313.99996533</v>
+        <v>15317692.20825388</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>27902019.2689822</v>
+        <v>15658402.09294076</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>28528550.95108191</v>
+        <v>16005309.69047252</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>29170944.6961889</v>
+        <v>16360990.05131007</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>29828113.79977728</v>
+        <v>16726128.03252574</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>30501284.83108769</v>
+        <v>17098577.48498616</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>31190110.16506545</v>
+        <v>17481581.55230616</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>31894634.55773138</v>
+        <v>17872646.9773431</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>32618576.97787768</v>
+        <v>18272712.05457816</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>33359255.97199472</v>
+        <v>18680664.64298059</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>34117230.90375108</v>
+        <v>19100700.68473262</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>34894063.43117189</v>
+        <v>19530318.31153253</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>36127025.03228393</v>
+        <v>20208619.04316734</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>37582200.01683917</v>
+        <v>21011792.57315329</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>39267796.82838347</v>
+        <v>21941928.93097752</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>41185608.55819674</v>
+        <v>22998212.01297129</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>43344685.42689548</v>
+        <v>24188043.42569105</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>45748959.15409878</v>
+        <v>25512810.97999056</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>48404767.82576591</v>
+        <v>26976855.61844702</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>51318889.80401808</v>
+        <v>28580258.30719694</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>54496960.79994544</v>
+        <v>30329005.72349841</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>57946271.3518883</v>
+        <v>32228525.11964522</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>61673880.52644158</v>
+        <v>34279323.70652281</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>65686587.86345213</v>
+        <v>36487520.43737277</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>69990566.54701397</v>
+        <v>38856148.33768992</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>74595717.52392384</v>
+        <v>41390260.57897694</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>79508062.03014742</v>
+        <v>44091379.68278782</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>84736048.1949116</v>
+        <v>46964676.03268868</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>90287745.65819439</v>
+        <v>50015755.69136214</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>96170320.81726027</v>
+        <v>53251081.40362364</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>102392692.3074756</v>
+        <v>56672995.86114535</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>108965456.0036363</v>
+        <v>60287254.69397536</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>115896214.7252619</v>
+        <v>64099856.79264201</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>123196160.7290996</v>
+        <v>68113235.96776053</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>130874859.1720122</v>
+        <v>72334103.8225674</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>138941152.3866956</v>
+        <v>76768028.3431263</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>147407154.8650646</v>
+        <v>81421373.15775555</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>156280364.0463835</v>
+        <v>86299870.93828289</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>165572283.2249486</v>
+        <v>91407904.65547451</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>175298940.2151176</v>
+        <v>96752798.78710045</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>185468195.1028896</v>
+        <v>102341945.0200536</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>196091229.3919598</v>
+        <v>108179644.8677309</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>207185221.9522989</v>
+        <v>114276701.7732247</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>218757642.0155922</v>
+        <v>120637841.5200988</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>230825264.5567546</v>
+        <v>127268374.8889813</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>243400067.7742494</v>
+        <v>134180233.8255661</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>256498497.9261679</v>
+        <v>141380300.5676696</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>270130912.5674638</v>
+        <v>148873807.914486</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>284317708.0148486</v>
+        <v>156672374.1857643</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>299069194.1266068</v>
+        <v>164780240.325771</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>314403405.0082827</v>
+        <v>173208696.3806513</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>330334630.8145097</v>
+        <v>181969906.6564859</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>346884221.5153705</v>
+        <v>191069505.2854653</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>364064341.8561019</v>
+        <v>200519473.7766506</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>381900676.5369061</v>
+        <v>210325155.7217731</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>400404399.2409264</v>
+        <v>220499815.3566881</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>419597478.9811007</v>
+        <v>231056262.0519435</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>439503488.5536497</v>
+        <v>242002818.1015115</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>460137448.4620519</v>
+        <v>253350815.4972028</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>481519178.4943889</v>
+        <v>265113861.0425105</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>503675787.2604855</v>
+        <v>277297393.6846827</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>526628689.0150377</v>
+        <v>289920523.7054737</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>550398786.7028408</v>
+        <v>302991521.3379958</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>575010306.9934057</v>
+        <v>316528534.9700378</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>600488711.5181837</v>
+        <v>330538924.2335863</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>626861363.7286963</v>
+        <v>345043819.5275626</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>654151068.4119682</v>
+        <v>360052153.3451009</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>681598975.8336279</v>
+        <v>375147940.5254455</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>709650601.9501476</v>
+        <v>390576318.6397225</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>738325926.3582166</v>
+        <v>406348737.0819951</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>767640716.7528422</v>
+        <v>422469714.5529048</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>797616480.4117622</v>
+        <v>438955535.1582987</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>828267877.2724915</v>
+        <v>455815744.4093241</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>859619783.4448574</v>
+        <v>473060277.5602124</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>891692396.9543815</v>
+        <v>490701636.0714064</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>924507931.8805778</v>
+        <v>508749153.5690057</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>958086048.9189918</v>
+        <v>527218479.3429694</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>992457094.5804627</v>
+        <v>546122427.8815966</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>1027640204.525324</v>
+        <v>565473991.5503955</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>1063666507.130476</v>
+        <v>585287322.6529951</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>1100560814.431426</v>
+        <v>605578769.1170168</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>1138349660.138931</v>
+        <v>626364231.8361852</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>1177060203.365253</v>
+        <v>647653023.8383288</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>1216726130.465276</v>
+        <v>669467934.7839644</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>1257376658.957385</v>
+        <v>691824594.5037193</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>1299061511.123339</v>
+        <v>714752523.2360313</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>1341802397.264551</v>
+        <v>738259030.3387313</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>1385634394.911312</v>
+        <v>762366967.926523</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>1430595555.997598</v>
+        <v>787095702.7500738</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>1476727963.600949</v>
+        <v>812468148.0800669</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>1524075923.385437</v>
+        <v>838510727.5230182</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>1572686426.33248</v>
+        <v>865241954.3929129</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>1623465842.073648</v>
+        <v>893169017.5318381</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>1676022321.286757</v>
+        <v>922072683.9130025</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>1730422343.884993</v>
+        <v>951991046.2748394</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>1786748646.924371</v>
+        <v>982964922.0347538</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>1845080560.893659</v>
+        <v>1015045651.603911</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>1905506065.194234</v>
+        <v>1050459847.168429</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>1968077062.025497</v>
+        <v>1088120387.851854</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>2032311606.611678</v>
+        <v>1127863116.855864</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>2096589237.914448</v>
+        <v>1169024715.157661</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>2158495368.551833</v>
+        <v>1210600442.214034</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>2214997469.14049</v>
+        <v>1250915172.285741</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>2264694169.953599</v>
+        <v>1289484315.574055</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>2306752561.608277</v>
+        <v>1325812580.491128</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>2341145399.050176</v>
+        <v>1359733280.182845</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>2368473259.918596</v>
+        <v>1391336672.490767</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>2389730616.370896</v>
+        <v>1420906110.694939</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>2406113771.274717</v>
+        <v>1448843869.186996</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>2418874210.801127</v>
+        <v>1475616511.07325</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>2429220847.982933</v>
+        <v>1501716750.032163</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>2438266682.232994</v>
+        <v>1527633561.286795</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>2439905146.805156</v>
+        <v>1546733127.161594</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>2438472248.689073</v>
+        <v>1562930767.873459</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>2435081148.288527</v>
+        <v>1577011187.740107</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>2430702234.553274</v>
+        <v>1589704497.854035</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>2426194866.408111</v>
+        <v>1601684034.442139</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>2422311709.054578</v>
+        <v>1613593516.053017</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>2419762958.198534</v>
+        <v>1626060160.597005</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>2419258841.363904</v>
+        <v>1639758210.561042</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>2421622520.204328</v>
+        <v>1655502569.213158</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>2427982830.882711</v>
+        <v>1674432236.988113</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>2436829736.697777</v>
+        <v>1695069047.32214</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>2452964766.688353</v>
+        <v>1722240733.61927</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>2471777579.663013</v>
+        <v>1751386831.775557</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>2492584928.293505</v>
+        <v>1781867102.907413</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>2514820491.846371</v>
+        <v>1813172061.456815</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>2538033034.593274</v>
+        <v>1844899366.808007</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>2561636923.800809</v>
+        <v>1876576847.862875</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>2582670022.242945</v>
+        <v>1905974220.328923</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>2594025767.596107</v>
+        <v>1927739989.164464</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>2587412358.43443</v>
+        <v>1935488024.555287</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>2557273875.019182</v>
+        <v>1924781087.030689</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>2502306512.286789</v>
+        <v>1894368088.486805</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>2424865159.660708</v>
+        <v>1845822230.551116</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>2329547805.248198</v>
+        <v>1782507761.254125</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>2221818897.450447</v>
+        <v>1708552609.419513</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>2107032964.805575</v>
+        <v>1628076123.674752</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>1989858264.327608</v>
+        <v>1544737782.69252</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>1874048497.639092</v>
+        <v>1461521998.100192</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>1762408856.551935</v>
+        <v>1380708404.474962</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>1656880361.00195</v>
+        <v>1303924190.04786</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>1558691828.810404</v>
+        <v>1232209585.827315</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>1468476081.320519</v>
+        <v>1166172930.948108</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>1386448179.482137</v>
+        <v>1106055647.898187</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>1312509894.341346</v>
+        <v>1051859028.467908</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>1246339727.444329</v>
+        <v>1003411945.918673</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>1187487190.087924</v>
+        <v>960417775.3564706</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>1135419835.211473</v>
+        <v>922508549.4641836</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>1089575615.488764</v>
+        <v>889289604.2818542</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>1049375274.309643</v>
+        <v>860334713.6807311</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>1014270887.84108</v>
+        <v>835246795.4382154</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>983734836.5354027</v>
+        <v>813633288.3334775</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>957258472.4942629</v>
+        <v>795133330.7148523</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>934396561.9349253</v>
+        <v>779410808.416748</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>914726330.3635209</v>
+        <v>766148966.6369865</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>897891397.3156146</v>
+        <v>755082255.1195626</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>883553236.8912657</v>
+        <v>745954807.1078198</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>871412694.5895882</v>
+        <v>738542269.697695</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>861213260.1500752</v>
+        <v>732660109.6022725</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>852715891.2744676</v>
+        <v>728117948.212527</v>
       </c>
     </row>
     <row r="452">
